--- a/ResultadoEleicoesDistritos/GUARDA_MANTEIGAS.xlsx
+++ b/ResultadoEleicoesDistritos/GUARDA_MANTEIGAS.xlsx
@@ -597,64 +597,64 @@
         <v>884</v>
       </c>
       <c r="H2" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M2" t="n">
         <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S2" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T2" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="U2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V2" t="n">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
